--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vegfc-Flt4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vegfc-Flt4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Flt4</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.31691982785345</v>
+        <v>4.425865000000001</v>
       </c>
       <c r="H2">
-        <v>4.31691982785345</v>
+        <v>13.277595</v>
       </c>
       <c r="I2">
-        <v>0.4848559537796264</v>
+        <v>0.4619841037548157</v>
       </c>
       <c r="J2">
-        <v>0.4848559537796264</v>
+        <v>0.4696223785602887</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.9373137575054</v>
+        <v>16.05291066666667</v>
       </c>
       <c r="N2">
-        <v>15.9373137575054</v>
+        <v>48.158732</v>
       </c>
       <c r="O2">
-        <v>0.9888713504534645</v>
+        <v>0.972923027125661</v>
       </c>
       <c r="P2">
-        <v>0.9888713504534645</v>
+        <v>0.9767177893325292</v>
       </c>
       <c r="Q2">
-        <v>68.80010576249664</v>
+        <v>71.04801546772667</v>
       </c>
       <c r="R2">
-        <v>68.80010576249664</v>
+        <v>639.4321392095401</v>
       </c>
       <c r="S2">
-        <v>0.4794601617894617</v>
+        <v>0.4494749727090708</v>
       </c>
       <c r="T2">
-        <v>0.4794601617894617</v>
+        <v>0.4586885314084893</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +593,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.31691982785345</v>
+        <v>4.425865000000001</v>
       </c>
       <c r="H3">
-        <v>4.31691982785345</v>
+        <v>13.277595</v>
       </c>
       <c r="I3">
-        <v>0.4848559537796264</v>
+        <v>0.4619841037548157</v>
       </c>
       <c r="J3">
-        <v>0.4848559537796264</v>
+        <v>0.4696223785602887</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.179356778249388</v>
+        <v>0.145393</v>
       </c>
       <c r="N3">
-        <v>0.179356778249388</v>
+        <v>0.436179</v>
       </c>
       <c r="O3">
-        <v>0.0111286495465354</v>
+        <v>0.00881187222804462</v>
       </c>
       <c r="P3">
-        <v>0.0111286495465354</v>
+        <v>0.008846241812040924</v>
       </c>
       <c r="Q3">
-        <v>0.7742688322846975</v>
+        <v>0.6434897899450001</v>
       </c>
       <c r="R3">
-        <v>0.7742688322846975</v>
+        <v>5.791408109505</v>
       </c>
       <c r="S3">
-        <v>0.005395791990164629</v>
+        <v>0.004070944893675145</v>
       </c>
       <c r="T3">
-        <v>0.005395791990164629</v>
+        <v>0.004154393121090136</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,60 +655,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.12370466321776</v>
+        <v>4.425865000000001</v>
       </c>
       <c r="H4">
-        <v>4.12370466321776</v>
+        <v>13.277595</v>
       </c>
       <c r="I4">
-        <v>0.4631549431818207</v>
+        <v>0.4619841037548157</v>
       </c>
       <c r="J4">
-        <v>0.4631549431818207</v>
+        <v>0.4696223785602887</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>15.9373137575054</v>
+        <v>0.08871</v>
       </c>
       <c r="N4">
-        <v>15.9373137575054</v>
+        <v>0.26613</v>
       </c>
       <c r="O4">
-        <v>0.9888713504534645</v>
+        <v>0.005376470568389387</v>
       </c>
       <c r="P4">
-        <v>0.9888713504534645</v>
+        <v>0.005397440806270936</v>
       </c>
       <c r="Q4">
-        <v>65.72077506098958</v>
+        <v>0.3926184841500001</v>
       </c>
       <c r="R4">
-        <v>65.72077506098958</v>
+        <v>3.53356635735</v>
       </c>
       <c r="S4">
-        <v>0.4580006541334047</v>
+        <v>0.002483843936901516</v>
       </c>
       <c r="T4">
-        <v>0.4580006541334047</v>
+        <v>0.002534758989579319</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,60 +717,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.12370466321776</v>
+        <v>4.425865000000001</v>
       </c>
       <c r="H5">
-        <v>4.12370466321776</v>
+        <v>13.277595</v>
       </c>
       <c r="I5">
-        <v>0.4631549431818207</v>
+        <v>0.4619841037548157</v>
       </c>
       <c r="J5">
-        <v>0.4631549431818207</v>
+        <v>0.4696223785602887</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.179356778249388</v>
+        <v>0.02034366666666667</v>
       </c>
       <c r="N5">
-        <v>0.179356778249388</v>
+        <v>0.061031</v>
       </c>
       <c r="O5">
-        <v>0.0111286495465354</v>
+        <v>0.001232974017432731</v>
       </c>
       <c r="P5">
-        <v>0.0111286495465354</v>
+        <v>0.001237783075367383</v>
       </c>
       <c r="Q5">
-        <v>0.739614382846715</v>
+        <v>0.09003832227166668</v>
       </c>
       <c r="R5">
-        <v>0.739614382846715</v>
+        <v>0.8103449004450001</v>
       </c>
       <c r="S5">
-        <v>0.005154289048415999</v>
+        <v>0.0005696143963966348</v>
       </c>
       <c r="T5">
-        <v>0.005154289048415999</v>
+        <v>0.0005812906319956993</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +779,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.462885498239035</v>
+        <v>4.425865000000001</v>
       </c>
       <c r="H6">
-        <v>0.462885498239035</v>
+        <v>13.277595</v>
       </c>
       <c r="I6">
-        <v>0.05198910303855286</v>
+        <v>0.4619841037548157</v>
       </c>
       <c r="J6">
-        <v>0.05198910303855286</v>
+        <v>0.4696223785602887</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.9373137575054</v>
+        <v>0.1923145</v>
       </c>
       <c r="N6">
-        <v>15.9373137575054</v>
+        <v>0.384629</v>
       </c>
       <c r="O6">
-        <v>0.9888713504534645</v>
+        <v>0.01165565606047256</v>
       </c>
       <c r="P6">
-        <v>0.9888713504534645</v>
+        <v>0.007800744973791697</v>
       </c>
       <c r="Q6">
-        <v>7.377151419234715</v>
+        <v>0.8511580145425002</v>
       </c>
       <c r="R6">
-        <v>7.377151419234715</v>
+        <v>5.106948087255001</v>
       </c>
       <c r="S6">
-        <v>0.05141053453059808</v>
+        <v>0.005384727818771803</v>
       </c>
       <c r="T6">
-        <v>0.05141053453059808</v>
+        <v>0.003663404409134273</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,55 +841,613 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.686805000000001</v>
+      </c>
+      <c r="H7">
+        <v>14.060415</v>
+      </c>
+      <c r="I7">
+        <v>0.4892217470254038</v>
+      </c>
+      <c r="J7">
+        <v>0.4973103589802793</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>16.05291066666667</v>
+      </c>
+      <c r="N7">
+        <v>48.158732</v>
+      </c>
+      <c r="O7">
+        <v>0.972923027125661</v>
+      </c>
+      <c r="P7">
+        <v>0.9767177893325292</v>
+      </c>
+      <c r="Q7">
+        <v>75.23686197708668</v>
+      </c>
+      <c r="R7">
+        <v>677.13175779378</v>
+      </c>
+      <c r="S7">
+        <v>0.4759751030516602</v>
+      </c>
+      <c r="T7">
+        <v>0.4857318744353848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.686805000000001</v>
+      </c>
+      <c r="H8">
+        <v>14.060415</v>
+      </c>
+      <c r="I8">
+        <v>0.4892217470254038</v>
+      </c>
+      <c r="J8">
+        <v>0.4973103589802793</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.145393</v>
+      </c>
+      <c r="N8">
+        <v>0.436179</v>
+      </c>
+      <c r="O8">
+        <v>0.00881187222804462</v>
+      </c>
+      <c r="P8">
+        <v>0.008846241812040924</v>
+      </c>
+      <c r="Q8">
+        <v>0.6814286393650001</v>
+      </c>
+      <c r="R8">
+        <v>6.132857754285</v>
+      </c>
+      <c r="S8">
+        <v>0.004310959525968627</v>
+      </c>
+      <c r="T8">
+        <v>0.004399327691172428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.686805000000001</v>
+      </c>
+      <c r="H9">
+        <v>14.060415</v>
+      </c>
+      <c r="I9">
+        <v>0.4892217470254038</v>
+      </c>
+      <c r="J9">
+        <v>0.4973103589802793</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.08871</v>
+      </c>
+      <c r="N9">
+        <v>0.26613</v>
+      </c>
+      <c r="O9">
+        <v>0.005376470568389387</v>
+      </c>
+      <c r="P9">
+        <v>0.005397440806270936</v>
+      </c>
+      <c r="Q9">
+        <v>0.41576647155</v>
+      </c>
+      <c r="R9">
+        <v>3.74189824395</v>
+      </c>
+      <c r="S9">
+        <v>0.002630286324298122</v>
+      </c>
+      <c r="T9">
+        <v>0.002684203224941407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.686805000000001</v>
+      </c>
+      <c r="H10">
+        <v>14.060415</v>
+      </c>
+      <c r="I10">
+        <v>0.4892217470254038</v>
+      </c>
+      <c r="J10">
+        <v>0.4973103589802793</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.02034366666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.061031</v>
+      </c>
+      <c r="O10">
+        <v>0.001232974017432731</v>
+      </c>
+      <c r="P10">
+        <v>0.001237783075367383</v>
+      </c>
+      <c r="Q10">
+        <v>0.09534679865166668</v>
+      </c>
+      <c r="R10">
+        <v>0.858121187865</v>
+      </c>
+      <c r="S10">
+        <v>0.0006031977028453714</v>
+      </c>
+      <c r="T10">
+        <v>0.0006155623455506672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.462885498239035</v>
-      </c>
-      <c r="H7">
-        <v>0.462885498239035</v>
-      </c>
-      <c r="I7">
-        <v>0.05198910303855286</v>
-      </c>
-      <c r="J7">
-        <v>0.05198910303855286</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.179356778249388</v>
-      </c>
-      <c r="N7">
-        <v>0.179356778249388</v>
-      </c>
-      <c r="O7">
-        <v>0.0111286495465354</v>
-      </c>
-      <c r="P7">
-        <v>0.0111286495465354</v>
-      </c>
-      <c r="Q7">
-        <v>0.08302165166251609</v>
-      </c>
-      <c r="R7">
-        <v>0.08302165166251609</v>
-      </c>
-      <c r="S7">
-        <v>0.0005785685079547735</v>
-      </c>
-      <c r="T7">
-        <v>0.0005785685079547735</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.686805000000001</v>
+      </c>
+      <c r="H11">
+        <v>14.060415</v>
+      </c>
+      <c r="I11">
+        <v>0.4892217470254038</v>
+      </c>
+      <c r="J11">
+        <v>0.4973103589802793</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.1923145</v>
+      </c>
+      <c r="N11">
+        <v>0.384629</v>
+      </c>
+      <c r="O11">
+        <v>0.01165565606047256</v>
+      </c>
+      <c r="P11">
+        <v>0.007800744973791697</v>
+      </c>
+      <c r="Q11">
+        <v>0.9013405601725001</v>
+      </c>
+      <c r="R11">
+        <v>5.408043361035</v>
+      </c>
+      <c r="S11">
+        <v>0.005702200420631623</v>
+      </c>
+      <c r="T11">
+        <v>0.003879391283229958</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.467454</v>
+      </c>
+      <c r="H12">
+        <v>0.9349080000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.04879414921978045</v>
+      </c>
+      <c r="J12">
+        <v>0.03306726245943202</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>16.05291066666667</v>
+      </c>
+      <c r="N12">
+        <v>48.158732</v>
+      </c>
+      <c r="O12">
+        <v>0.972923027125661</v>
+      </c>
+      <c r="P12">
+        <v>0.9767177893325292</v>
+      </c>
+      <c r="Q12">
+        <v>7.503997302776</v>
+      </c>
+      <c r="R12">
+        <v>45.02398381665601</v>
+      </c>
+      <c r="S12">
+        <v>0.04747295136493001</v>
+      </c>
+      <c r="T12">
+        <v>0.03229738348865498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.467454</v>
+      </c>
+      <c r="H13">
+        <v>0.9349080000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.04879414921978045</v>
+      </c>
+      <c r="J13">
+        <v>0.03306726245943202</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.145393</v>
+      </c>
+      <c r="N13">
+        <v>0.436179</v>
+      </c>
+      <c r="O13">
+        <v>0.00881187222804462</v>
+      </c>
+      <c r="P13">
+        <v>0.008846241812040924</v>
+      </c>
+      <c r="Q13">
+        <v>0.06796453942200001</v>
+      </c>
+      <c r="R13">
+        <v>0.407787236532</v>
+      </c>
+      <c r="S13">
+        <v>0.0004299678084008484</v>
+      </c>
+      <c r="T13">
+        <v>0.0002925209997783587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.467454</v>
+      </c>
+      <c r="H14">
+        <v>0.9349080000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.04879414921978045</v>
+      </c>
+      <c r="J14">
+        <v>0.03306726245943202</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.08871</v>
+      </c>
+      <c r="N14">
+        <v>0.26613</v>
+      </c>
+      <c r="O14">
+        <v>0.005376470568389387</v>
+      </c>
+      <c r="P14">
+        <v>0.005397440806270936</v>
+      </c>
+      <c r="Q14">
+        <v>0.04146784434</v>
+      </c>
+      <c r="R14">
+        <v>0.24880706604</v>
+      </c>
+      <c r="S14">
+        <v>0.0002623403071897496</v>
+      </c>
+      <c r="T14">
+        <v>0.0001784785917502094</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.467454</v>
+      </c>
+      <c r="H15">
+        <v>0.9349080000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.04879414921978045</v>
+      </c>
+      <c r="J15">
+        <v>0.03306726245943202</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.02034366666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.061031</v>
+      </c>
+      <c r="O15">
+        <v>0.001232974017432731</v>
+      </c>
+      <c r="P15">
+        <v>0.001237783075367383</v>
+      </c>
+      <c r="Q15">
+        <v>0.009509728358</v>
+      </c>
+      <c r="R15">
+        <v>0.05705837014800001</v>
+      </c>
+      <c r="S15">
+        <v>6.016191819072486E-05</v>
+      </c>
+      <c r="T15">
+        <v>4.093009782101617E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.467454</v>
+      </c>
+      <c r="H16">
+        <v>0.9349080000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.04879414921978045</v>
+      </c>
+      <c r="J16">
+        <v>0.03306726245943202</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1923145</v>
+      </c>
+      <c r="N16">
+        <v>0.384629</v>
+      </c>
+      <c r="O16">
+        <v>0.01165565606047256</v>
+      </c>
+      <c r="P16">
+        <v>0.007800744973791697</v>
+      </c>
+      <c r="Q16">
+        <v>0.08989818228300001</v>
+      </c>
+      <c r="R16">
+        <v>0.359592729132</v>
+      </c>
+      <c r="S16">
+        <v>0.0005687278210691365</v>
+      </c>
+      <c r="T16">
+        <v>0.0002579492814274652</v>
       </c>
     </row>
   </sheetData>
